--- a/reports/For Winter Ending (Prior Year)_Revenue.xlsx
+++ b/reports/For Winter Ending (Prior Year)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -37,16 +37,22 @@
     <t>D1500</t>
   </si>
   <si>
+    <t>T100</t>
+  </si>
+  <si>
     <t>T105</t>
   </si>
   <si>
-    <t>T100</t>
-  </si>
-  <si>
     <t>Ski School</t>
   </si>
   <si>
     <t>D2000</t>
+  </si>
+  <si>
+    <t>Child Care</t>
+  </si>
+  <si>
+    <t>D2200</t>
   </si>
   <si>
     <t>Rentals</t>
@@ -493,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -530,7 +536,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>462.1500</v>
+        <v>532.6500</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -544,7 +550,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>1305.0000</v>
+        <v>234723.1500</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -558,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>187799.3100</v>
+        <v>4147.0000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -570,7 +576,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2">
-        <v>17265.0000</v>
+        <v>29319.0000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -582,7 +588,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="2">
-        <v>70220.7500</v>
+        <v>1120.0000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -594,7 +600,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="2">
-        <v>11515.4900</v>
+        <v>86440.8500</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -606,7 +612,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>55165.6200</v>
+        <v>14912.2300</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -618,7 +624,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>28281.1600</v>
+        <v>73904.8400</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -630,7 +636,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="2">
-        <v>7906.1300</v>
+        <v>33802.6200</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -642,7 +648,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="2">
-        <v>29800.4500</v>
+        <v>12300.4600</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -654,7 +660,7 @@
         <v>24</v>
       </c>
       <c r="D12" s="2">
-        <v>6404.6300</v>
+        <v>41147.3100</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -666,7 +672,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="2">
-        <v>2647.5700</v>
+        <v>33121.9500</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -678,7 +684,7 @@
         <v>28</v>
       </c>
       <c r="D14" s="2">
-        <v>38.0800</v>
+        <v>3849.4400</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -690,7 +696,7 @@
         <v>30</v>
       </c>
       <c r="D15" s="2">
-        <v>1399.8600</v>
+        <v>128.0800</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -702,7 +708,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="2">
-        <v>93896.7700</v>
+        <v>1399.8600</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -714,7 +720,7 @@
         <v>34</v>
       </c>
       <c r="D17" s="2">
-        <v>2709.3200</v>
+        <v>94128.4500</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -726,7 +732,7 @@
         <v>36</v>
       </c>
       <c r="D18" s="2">
-        <v>450.0000</v>
+        <v>7176.1300</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -738,6 +744,18 @@
         <v>38</v>
       </c>
       <c r="D19" s="2">
+        <v>540.0000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="2">
         <v>640.0000</v>
       </c>
     </row>

--- a/reports/For Winter Ending (Prior Year)_Revenue.xlsx
+++ b/reports/For Winter Ending (Prior Year)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,112 +31,70 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>T104</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>T100</t>
-  </si>
-  <si>
-    <t>T105</t>
+    <t xml:space="preserve">                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1500                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T101                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T104                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T103                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T100                     </t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Child Care</t>
-  </si>
-  <si>
-    <t>D2200</t>
+    <t xml:space="preserve">D2000                    </t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Expert Edge</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Branded</t>
-  </si>
-  <si>
-    <t>D4056</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Dante's</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>Waffle Cabin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5205                    </t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Paradise</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>Guest Services</t>
-  </si>
-  <si>
-    <t>D6720</t>
-  </si>
-  <si>
-    <t>Grounds Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D6780                    </t>
+    <t xml:space="preserve">D3000                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4032                    </t>
+  </si>
+  <si>
+    <t>Fort Valley Lodge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4034                    </t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5110                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5111                    </t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5112                    </t>
+  </si>
+  <si>
+    <t>General Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8010                    </t>
   </si>
 </sst>
 </file>
@@ -499,15 +457,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -536,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>532.6500</v>
+        <v>-1413.1700</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -550,7 +507,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>234723.1500</v>
+        <v>317.9000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -564,199 +521,131 @@
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>4147.0000</v>
+        <v>-607.1000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2">
-        <v>29319.0000</v>
+        <v>95079.1200</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
-        <v>1120.0000</v>
+        <v>766931.0300</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
-        <v>86440.8500</v>
+        <v>52996.3000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
-        <v>14912.2300</v>
+        <v>325027.5600</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
-        <v>73904.8400</v>
+        <v>160675.7400</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>33802.6200</v>
+        <v>5.0000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
-        <v>12300.4600</v>
+        <v>193123.8500</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2">
-        <v>41147.3100</v>
+        <v>170222.2600</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2">
-        <v>33121.9500</v>
+        <v>28778.1600</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2">
-        <v>3849.4400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="2">
-        <v>128.0800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1399.8600</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="2">
-        <v>94128.4500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="2">
-        <v>7176.1300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="2">
-        <v>540.0000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="2">
-        <v>640.0000</v>
+        <v>42.0000</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Prior Year)_Revenue.xlsx
+++ b/reports/For Winter Ending (Prior Year)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,70 +31,112 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t xml:space="preserve">                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1500                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T101                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T104                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T103                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T100                     </t>
+    <t>T104</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>T105</t>
+  </si>
+  <si>
+    <t>T100</t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t xml:space="preserve">D2000                    </t>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>Child Care</t>
+  </si>
+  <si>
+    <t>D2200</t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t xml:space="preserve">D3000                    </t>
-  </si>
-  <si>
-    <t>Hart Prairie Retail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4032                    </t>
-  </si>
-  <si>
-    <t>Fort Valley Lodge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4034                    </t>
-  </si>
-  <si>
-    <t>Agassiz Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5110                    </t>
-  </si>
-  <si>
-    <t>Hart Prairie Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5111                    </t>
-  </si>
-  <si>
-    <t>Base Camp Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5112                    </t>
-  </si>
-  <si>
-    <t>General Administration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D8010                    </t>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>Expert Edge</t>
+  </si>
+  <si>
+    <t>D4053</t>
+  </si>
+  <si>
+    <t>Purg Sports Resort</t>
+  </si>
+  <si>
+    <t>D4054</t>
+  </si>
+  <si>
+    <t>Purg Sports Main Ave</t>
+  </si>
+  <si>
+    <t>D4055</t>
+  </si>
+  <si>
+    <t>Branded</t>
+  </si>
+  <si>
+    <t>D4056</t>
+  </si>
+  <si>
+    <t>Powderhouse</t>
+  </si>
+  <si>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>Dante's</t>
+  </si>
+  <si>
+    <t>D5202</t>
+  </si>
+  <si>
+    <t>Waffle Cabin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5205                    </t>
+  </si>
+  <si>
+    <t>Hoody's</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>Paradise</t>
+  </si>
+  <si>
+    <t>D5207</t>
+  </si>
+  <si>
+    <t>Purgy's</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>Village Market Deli</t>
+  </si>
+  <si>
+    <t>D5209</t>
+  </si>
+  <si>
+    <t>Guest Services</t>
+  </si>
+  <si>
+    <t>D6720</t>
+  </si>
+  <si>
+    <t>Grounds Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6780                    </t>
   </si>
 </sst>
 </file>
@@ -457,14 +499,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="3" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -493,7 +536,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>-1413.1700</v>
+        <v>532.6500</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -507,7 +550,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>317.9000</v>
+        <v>4147.0000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -521,131 +564,199 @@
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>-607.1000</v>
+        <v>234723.1500</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
-        <v>95079.1200</v>
+        <v>29319.0000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
-        <v>766931.0300</v>
+        <v>1120.0000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2">
-        <v>52996.3000</v>
+        <v>86440.8500</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>325027.5600</v>
+        <v>14912.2300</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>160675.7400</v>
+        <v>73904.8400</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2">
-        <v>5.0000</v>
+        <v>33802.6200</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2">
-        <v>193123.8500</v>
+        <v>12300.4600</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2">
-        <v>170222.2600</v>
+        <v>41147.3100</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2">
-        <v>28778.1600</v>
+        <v>33121.9500</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
-        <v>42.0000</v>
+        <v>3849.4400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2">
+        <v>128.0800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1399.8600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="2">
+        <v>94128.4500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2">
+        <v>7176.1300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="2">
+        <v>540.0000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="2">
+        <v>640.0000</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Prior Year)_Revenue.xlsx
+++ b/reports/For Winter Ending (Prior Year)_Revenue.xlsx
@@ -564,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>234723.1500</v>
+        <v>239288.2400</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -576,7 +576,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2">
-        <v>29319.0000</v>
+        <v>30055.0000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -588,7 +588,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="2">
-        <v>1120.0000</v>
+        <v>1440.0000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -600,7 +600,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="2">
-        <v>86440.8500</v>
+        <v>88355.3500</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -612,7 +612,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>14912.2300</v>
+        <v>15116.7300</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -624,7 +624,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>73904.8400</v>
+        <v>78060.5300</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -636,7 +636,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="2">
-        <v>33802.6200</v>
+        <v>34143.3100</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -648,7 +648,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="2">
-        <v>12300.4600</v>
+        <v>12824.0200</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -660,7 +660,7 @@
         <v>24</v>
       </c>
       <c r="D12" s="2">
-        <v>41147.3100</v>
+        <v>42117.6600</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -672,7 +672,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="2">
-        <v>33121.9500</v>
+        <v>33136.6200</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -720,7 +720,7 @@
         <v>34</v>
       </c>
       <c r="D17" s="2">
-        <v>94128.4500</v>
+        <v>97116.7700</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -732,7 +732,7 @@
         <v>36</v>
       </c>
       <c r="D18" s="2">
-        <v>7176.1300</v>
+        <v>7578.3100</v>
       </c>
     </row>
     <row r="19" spans="1:4">

--- a/reports/For Winter Ending (Prior Year)_Revenue.xlsx
+++ b/reports/For Winter Ending (Prior Year)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,112 +31,70 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>T104</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>T105</t>
-  </si>
-  <si>
-    <t>T100</t>
+    <t xml:space="preserve">T100                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1500                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T103                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T101                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T104                     </t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Child Care</t>
-  </si>
-  <si>
-    <t>D2200</t>
+    <t xml:space="preserve">D2000                    </t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Expert Edge</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Branded</t>
-  </si>
-  <si>
-    <t>D4056</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Dante's</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>Waffle Cabin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5205                    </t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Paradise</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>Guest Services</t>
-  </si>
-  <si>
-    <t>D6720</t>
-  </si>
-  <si>
-    <t>Grounds Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D6780                    </t>
+    <t xml:space="preserve">D3000                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4032                    </t>
+  </si>
+  <si>
+    <t>Fort Valley Lodge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4034                    </t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5110                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5111                    </t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5112                    </t>
+  </si>
+  <si>
+    <t>General Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8010                    </t>
   </si>
 </sst>
 </file>
@@ -499,15 +457,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -536,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>532.6500</v>
+        <v>787223.4900</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -550,7 +507,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>4147.0000</v>
+        <v>95079.1200</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -564,199 +521,131 @@
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>239288.2400</v>
+        <v>-1413.1700</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2">
-        <v>30055.0000</v>
+        <v>336.6000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
-        <v>1440.0000</v>
+        <v>-607.1000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
-        <v>88355.3500</v>
+        <v>54652.3000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
-        <v>15116.7300</v>
+        <v>335971.6500</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
-        <v>78060.5300</v>
+        <v>166647.8600</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>34143.3100</v>
+        <v>5.0000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
-        <v>12824.0200</v>
+        <v>195453.4500</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2">
-        <v>42117.6600</v>
+        <v>177705.6800</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2">
-        <v>33136.6200</v>
+        <v>29430.5100</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2">
-        <v>3849.4400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="2">
-        <v>128.0800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1399.8600</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="2">
-        <v>97116.7700</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="2">
-        <v>7578.3100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="2">
-        <v>540.0000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="2">
-        <v>640.0000</v>
+        <v>42.0000</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Prior Year)_Revenue.xlsx
+++ b/reports/For Winter Ending (Prior Year)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,112 +31,70 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>T104</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>T100</t>
-  </si>
-  <si>
-    <t>T105</t>
+    <t xml:space="preserve">                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1500                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T101                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T104                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T100                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T103                     </t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Child Care</t>
-  </si>
-  <si>
-    <t>D2200</t>
+    <t xml:space="preserve">D2000                    </t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Expert Edge</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Branded</t>
-  </si>
-  <si>
-    <t>D4056</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Dante's</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>Waffle Cabin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5205                    </t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Paradise</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>Guest Services</t>
-  </si>
-  <si>
-    <t>D6720</t>
-  </si>
-  <si>
-    <t>Grounds Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D6780                    </t>
+    <t xml:space="preserve">D3000                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4032                    </t>
+  </si>
+  <si>
+    <t>Fort Valley Lodge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4034                    </t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5110                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5111                    </t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5112                    </t>
+  </si>
+  <si>
+    <t>General Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8010                    </t>
   </si>
 </sst>
 </file>
@@ -499,15 +457,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -536,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>557.6500</v>
+        <v>-1413.1700</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -550,7 +507,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>244073.9400</v>
+        <v>355.3000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -564,199 +521,131 @@
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>4147.0000</v>
+        <v>-607.1000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2">
-        <v>31530.0000</v>
+        <v>814083.4700</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
-        <v>1760.0000</v>
+        <v>95774.1900</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
-        <v>91050.3500</v>
+        <v>55505.3000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
-        <v>15342.6300</v>
+        <v>348555.4400</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
-        <v>80444.8900</v>
+        <v>169837.1500</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>34776.4800</v>
+        <v>5.0000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
-        <v>13577.3600</v>
+        <v>200807.2400</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2">
-        <v>42996.1900</v>
+        <v>184511.1100</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2">
-        <v>33136.6200</v>
+        <v>29740.5000</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2">
-        <v>3849.4400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="2">
-        <v>138.0800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1399.8600</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="2">
-        <v>98915.1300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="2">
-        <v>8128.2800</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="2">
-        <v>540.0000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="2">
-        <v>640.0000</v>
+        <v>42.0000</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Prior Year)_Revenue.xlsx
+++ b/reports/For Winter Ending (Prior Year)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,70 +31,118 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t xml:space="preserve">                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1500                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T101                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T104                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T100                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T103                     </t>
+    <t>T104</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>T105</t>
+  </si>
+  <si>
+    <t>T100</t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t xml:space="preserve">D2000                    </t>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>Child Care</t>
+  </si>
+  <si>
+    <t>D2200</t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t xml:space="preserve">D3000                    </t>
-  </si>
-  <si>
-    <t>Hart Prairie Retail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4032                    </t>
-  </si>
-  <si>
-    <t>Fort Valley Lodge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4034                    </t>
-  </si>
-  <si>
-    <t>Agassiz Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5110                    </t>
-  </si>
-  <si>
-    <t>Hart Prairie Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5111                    </t>
-  </si>
-  <si>
-    <t>Base Camp Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5112                    </t>
-  </si>
-  <si>
-    <t>General Administration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D8010                    </t>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>Expert Edge</t>
+  </si>
+  <si>
+    <t>D4053</t>
+  </si>
+  <si>
+    <t>Purg Sports Resort</t>
+  </si>
+  <si>
+    <t>D4054</t>
+  </si>
+  <si>
+    <t>Purg Sports Main Ave</t>
+  </si>
+  <si>
+    <t>D4055</t>
+  </si>
+  <si>
+    <t>Branded</t>
+  </si>
+  <si>
+    <t>D4056</t>
+  </si>
+  <si>
+    <t>Powderhouse</t>
+  </si>
+  <si>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>Dante's</t>
+  </si>
+  <si>
+    <t>D5202</t>
+  </si>
+  <si>
+    <t>Waffle Cabin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5205                    </t>
+  </si>
+  <si>
+    <t>Hoody's</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>Paradise</t>
+  </si>
+  <si>
+    <t>D5207</t>
+  </si>
+  <si>
+    <t>Purgy's</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>Village Market Deli</t>
+  </si>
+  <si>
+    <t>D5209</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>D5810</t>
+  </si>
+  <si>
+    <t>Guest Services</t>
+  </si>
+  <si>
+    <t>D6720</t>
+  </si>
+  <si>
+    <t>Grounds Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6780                    </t>
   </si>
 </sst>
 </file>
@@ -457,14 +505,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="3" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -493,7 +542,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>-1413.1700</v>
+        <v>593.8500</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -507,7 +556,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>355.3000</v>
+        <v>5075.0000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -521,131 +570,211 @@
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>-607.1000</v>
+        <v>303880.2400</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
-        <v>814083.4700</v>
+        <v>42715.6500</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
-        <v>95774.1900</v>
+        <v>3080.0000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2">
-        <v>55505.3000</v>
+        <v>117596.7000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>348555.4400</v>
+        <v>18255.2900</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>169837.1500</v>
+        <v>94150.6000</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2">
-        <v>5.0000</v>
+        <v>38487.9800</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2">
-        <v>200807.2400</v>
+        <v>17332.1800</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2">
-        <v>184511.1100</v>
+        <v>50305.7800</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2">
-        <v>29740.5000</v>
+        <v>33907.8400</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
-        <v>42.0000</v>
+        <v>4284.7800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2">
+        <v>328.0800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1399.8600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="2">
+        <v>122256.5100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2">
+        <v>11548.5500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="2">
+        <v>800.0000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="2">
+        <v>630.0000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="2">
+        <v>800.0000</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Prior Year)_Revenue.xlsx
+++ b/reports/For Winter Ending (Prior Year)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -31,118 +31,67 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>T104</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>T105</t>
-  </si>
-  <si>
-    <t>T100</t>
+    <t xml:space="preserve">D1500                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T101                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T104                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T103                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T100                     </t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Child Care</t>
-  </si>
-  <si>
-    <t>D2200</t>
+    <t xml:space="preserve">D2000                    </t>
   </si>
   <si>
     <t>Rentals</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Expert Edge</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Branded</t>
-  </si>
-  <si>
-    <t>D4056</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Dante's</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>Waffle Cabin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5205                    </t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Paradise</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>Events</t>
-  </si>
-  <si>
-    <t>D5810</t>
-  </si>
-  <si>
-    <t>Guest Services</t>
-  </si>
-  <si>
-    <t>D6720</t>
-  </si>
-  <si>
-    <t>Grounds Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D6780                    </t>
+    <t xml:space="preserve">D3000                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4032                    </t>
+  </si>
+  <si>
+    <t>Fort Valley Lodge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4034                    </t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5110                    </t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5111                    </t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5112                    </t>
+  </si>
+  <si>
+    <t>General Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8010                    </t>
   </si>
 </sst>
 </file>
@@ -505,16 +454,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -535,14 +483,12 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="2">
-        <v>593.8500</v>
+        <v>-969.0600</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -550,13 +496,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>5075.0000</v>
+        <v>411.4000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -564,217 +510,137 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2">
-        <v>303880.2400</v>
+        <v>-607.1000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2">
-        <v>42715.6500</v>
+        <v>102638.8500</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>3080.0000</v>
+        <v>1007502.5700</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2">
-        <v>117596.7000</v>
+        <v>70567.2000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2">
-        <v>18255.2900</v>
+        <v>423980.9800</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2">
-        <v>94150.6000</v>
+        <v>196451.9600</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2">
-        <v>38487.9800</v>
+        <v>5.0000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2">
-        <v>17332.1800</v>
+        <v>228581.8100</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2">
-        <v>50305.7800</v>
+        <v>220307.6000</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2">
-        <v>33907.8400</v>
+        <v>32943.7500</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2">
-        <v>4284.7800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="2">
-        <v>328.0800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1399.8600</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="2">
-        <v>122256.5100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="2">
-        <v>11548.5500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="2">
-        <v>800.0000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="2">
-        <v>630.0000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="2">
-        <v>800.0000</v>
+        <v>42.0000</v>
       </c>
     </row>
   </sheetData>
